--- a/excel/hw8.xlsx
+++ b/excel/hw8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalx\source\repos\keithalewis\FRE6233\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\Source\Repos\keithalewis\FRE6233\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4579B2AF-14E2-4C41-B2DA-9D691E15E6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF27495-CBB0-4879-BE6E-1F65F69FE8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="25575" windowHeight="14520" xr2:uid="{B7C01105-89CC-4D3E-BF96-84C6F912A3FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{B7C01105-89CC-4D3E-BF96-84C6F912A3FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,6 +43,76 @@
   </authors>
   <commentList>
     <comment ref="I11" authorId="0" shapeId="0" xr:uid="{8A734F51-56C3-4A0B-8BBA-ABA757FFF4EA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Calculate symmetric difference approximation of derivatives using eps.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{808311E4-07FE-4520-BF3C-9C7DB9109164}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Calculate symmetric difference approximation of derivatives using eps.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{1FE22B2C-A849-4218-9E75-E7ED12562356}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Calculate symmetric difference approximation of derivatives using eps.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I14" authorId="0" shapeId="0" xr:uid="{430A5875-A762-46E8-BFB7-4FC5AC17FF2D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Calculate symmetric difference approximation of derivatives using eps.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{A9CDE16F-9BD1-471E-9399-787A75726B29}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Calculate symmetric difference approximation of derivatives using eps.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{5DEF0D36-4318-4FD2-91E1-7DEBED9BA92D}">
       <text>
         <r>
           <rPr>
@@ -84,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Black-Scholes/Merton</t>
   </si>
@@ -99,14 +168,48 @@
   </si>
   <si>
     <t>relerr</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>DELTA</t>
+  </si>
+  <si>
+    <t>GAMMA</t>
+  </si>
+  <si>
+    <t>VEGA</t>
+  </si>
+  <si>
+    <t>Underlying</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>option</t>
+  </si>
+  <si>
+    <t>strike</t>
+  </si>
+  <si>
+    <t>expiration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.E+00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -173,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
@@ -185,6 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566DE474-7680-4E6F-8EA1-92B34E11CB88}">
-  <dimension ref="B2:N24"/>
+  <dimension ref="B2:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,12 +616,44 @@
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0.01</v>
       </c>
@@ -553,7 +689,7 @@
         <v>0.14918318685281437</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0.01</v>
       </c>
@@ -589,7 +725,7 @@
         <v>-0.14918318685281437</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0.01</v>
       </c>
@@ -625,7 +761,7 @@
         <v>-1.3297980557564837</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0.01</v>
       </c>
@@ -661,7 +797,7 @@
         <v>1.0829242994042823</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0.01</v>
       </c>
@@ -697,12 +833,12 @@
         <v>0.12138795924745681</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0.01</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D9">
         <v>0.2</v>
@@ -718,26 +854,29 @@
       </c>
       <c r="H9" s="1" cm="1">
         <f t="array" ref="H9">_xll.OPTION.VALUE(C9, D9, CODE(E9), F9, G9, B9)</f>
-        <v>0.5115377082193443</v>
+        <v>0.77851016722969979</v>
       </c>
       <c r="I9" s="2" cm="1">
         <f t="array" ref="I9">_xll.OPTION.DELTA($C9,$D9,CODE($E9),$F9,$G9,$B9)</f>
-        <v>-2.8051246304186241E-2</v>
+        <v>-2.3000880383837598E-2</v>
       </c>
       <c r="J9" s="2" cm="1">
         <f t="array" ref="J9">_xll.OPTION.GAMMA($C9,$D9,CODE($E9),$F9,$G9,$B9)</f>
-        <v>2.1038434728139668E-4</v>
+        <v>-1.1546507844819693E-3</v>
       </c>
       <c r="K9" s="2" cm="1">
         <f t="array" ref="K9">_xll.OPTION.VEGA($C9,$D9,CODE($E9),$F9,$G9,$B9)</f>
-        <v>0.21038434728139674</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-0.93526713543039564</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="E10" s="5"/>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11">
         <f>B4</f>
         <v>0.01</v>
@@ -766,17 +905,36 @@
         <f t="array" ref="H11">_xll.OPTION.VALUE(C11, D11, CODE(E11), F11, G11, B11)</f>
         <v>0.50869917923664487</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2" cm="1">
+        <f t="array" ref="I11">(_xll.OPTION.VALUE(C11+eps, D11, CODE(E11), F11, G11, B11) - _xll.OPTION.VALUE(C11-eps, D11, CODE(E11), F11, G11, B11))/(2*eps)</f>
+        <v>-3.9782183161585216E-2</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="M11" t="s">
         <v>1</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="7">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <f ca="1">EXP(-B11*G11)*C11*EXP(D11*SQRT(G11)*NORMSINV(RAND()) - D11*D11*G11/2)</f>
+        <v>91.769349218718801</v>
+      </c>
+      <c r="Q11" cm="1">
+        <f t="array" aca="1" ref="Q11" ca="1">_xll.MONTE.MEAN(P11)</f>
+        <v>99.78069238719884</v>
+      </c>
+      <c r="R11">
+        <f ca="1">EXP(-B11*G11)*1*(P11&lt;F11)</f>
+        <v>0.99750312239746008</v>
+      </c>
+      <c r="S11" cm="1">
+        <f t="array" aca="1" ref="S11" ca="1">_xll.MONTE.MEAN(R11)</f>
+        <v>0.52789689541043661</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12">
         <f t="shared" ref="B12:G12" si="1">B5</f>
         <v>0.01</v>
@@ -805,11 +963,14 @@
         <f t="array" ref="H12">_xll.OPTION.VALUE(C12, D12, CODE(E12), F12, G12, B12)</f>
         <v>0.48880394316081516</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2" cm="1">
+        <f t="array" ref="I12">(_xll.OPTION.VALUE(C12+eps, D12, CODE(E12), F12, G12, B12) - _xll.OPTION.VALUE(C12-eps, D12, CODE(E12), F12, G12, B12))/(2*eps)</f>
+        <v>3.9782183161862772E-2</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" ref="B13:G13" si="2">B6</f>
         <v>0.01</v>
@@ -838,11 +999,14 @@
         <f t="array" ref="H13">_xll.OPTION.VALUE(C13, D13, CODE(E13), F13, G13, B13)</f>
         <v>0.82126688068602982</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2" cm="1">
+        <f t="array" ref="I13">(_xll.OPTION.VALUE(C13+eps, D13, CODE(E13), F13, G13, B13) - _xll.OPTION.VALUE(C13-eps, D13, CODE(E13), F13, G13, B13))/(2*eps)</f>
+        <v>2.3517268928352486E-2</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14">
         <f t="shared" ref="B14:G14" si="3">B7</f>
         <v>0.01</v>
@@ -871,13 +1035,16 @@
         <f t="array" ref="H14">_xll.OPTION.VALUE(C14, D14, CODE(E14), F14, G14, B14)</f>
         <v>0.1636024714669099</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2" cm="1">
+        <f t="array" ref="I14">(_xll.OPTION.VALUE(C14+eps, D14, CODE(E14), F14, G14, B14) - _xll.OPTION.VALUE(C14-eps, D14, CODE(E14), F14, G14, B14))/(2*eps)</f>
+        <v>2.466511973497898E-2</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15">
-        <f t="shared" ref="B15:G15" si="4">B8</f>
+        <f t="shared" ref="B15:G16" si="4">B8</f>
         <v>0.01</v>
       </c>
       <c r="C15">
@@ -888,7 +1055,7 @@
         <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
-      <c r="E15" s="5" t="str">
+      <c r="E15" t="str">
         <f t="shared" si="4"/>
         <v>Q</v>
       </c>
@@ -904,24 +1071,27 @@
         <f t="array" ref="H15">_xll.OPTION.VALUE(C15, D15, CODE(E15), F15, G15, B15)</f>
         <v>0.52195192944108482</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2" cm="1">
+        <f t="array" ref="I15">(_xll.OPTION.VALUE(C15+eps, D15, CODE(E15), F15, G15, B15) - _xll.OPTION.VALUE(C15-eps, D15, CODE(E15), F15, G15, B15))/(2*eps)</f>
+        <v>-2.6484645654911709E-2</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16">
         <f t="shared" ref="B16:G16" si="5">B9</f>
         <v>0.01</v>
       </c>
       <c r="C16">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D16">
         <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-      <c r="E16" s="5" t="str">
+      <c r="E16" t="str">
         <f t="shared" si="5"/>
         <v>Q</v>
       </c>
@@ -935,9 +1105,12 @@
       </c>
       <c r="H16" s="1" cm="1">
         <f t="array" ref="H16">_xll.OPTION.VALUE(C16, D16, CODE(E16), F16, G16, B16)</f>
-        <v>0.5115377082193443</v>
-      </c>
-      <c r="I16" s="2"/>
+        <v>0.77851016722969979</v>
+      </c>
+      <c r="I16" s="2" cm="1">
+        <f t="array" ref="I16">(_xll.OPTION.VALUE(C16+eps, D16, CODE(E16), F16, G16, B16) - _xll.OPTION.VALUE(C16-eps, D16, CODE(E16), F16, G16, B16))/(2*eps)</f>
+        <v>-2.3000880385315448E-2</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
@@ -947,7 +1120,7 @@
       </c>
       <c r="I18" s="3">
         <f>(I4-I11)/ABS(I4)</f>
-        <v>-1</v>
+        <v>2.1002171037053864E-11</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" ref="J18:K18" si="6">(J4-J11)/ABS(J4)</f>
@@ -961,7 +1134,7 @@
     <row r="19" spans="8:11" x14ac:dyDescent="0.25">
       <c r="I19" s="3">
         <f t="shared" ref="I19:K19" si="7">(I5-I12)/ABS(I5)</f>
-        <v>1</v>
+        <v>-2.7979057022288933E-11</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="7"/>
@@ -975,7 +1148,7 @@
     <row r="20" spans="8:11" x14ac:dyDescent="0.25">
       <c r="I20" s="3">
         <f t="shared" ref="I20:K20" si="8">(I6-I13)/ABS(I6)</f>
-        <v>1</v>
+        <v>-8.2972047157496815E-11</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" si="8"/>
@@ -989,7 +1162,7 @@
     <row r="21" spans="8:11" x14ac:dyDescent="0.25">
       <c r="I21" s="3">
         <f t="shared" ref="I21:K21" si="9">(I7-I14)/ABS(I7)</f>
-        <v>1</v>
+        <v>-6.990061215355985E-12</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="9"/>
@@ -1003,7 +1176,7 @@
     <row r="22" spans="8:11" x14ac:dyDescent="0.25">
       <c r="I22" s="3">
         <f t="shared" ref="I22:K22" si="10">(I8-I15)/ABS(I8)</f>
-        <v>-1</v>
+        <v>3.4790955555105605E-11</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" si="10"/>
@@ -1017,15 +1190,15 @@
     <row r="23" spans="8:11" x14ac:dyDescent="0.25">
       <c r="I23" s="3">
         <f t="shared" ref="I23:K23" si="11">(I9-I16)/ABS(I9)</f>
-        <v>-1</v>
+        <v>6.4251848991814142E-11</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K23" s="3">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="8:11" x14ac:dyDescent="0.25">

--- a/excel/hw8.xlsx
+++ b/excel/hw8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\Source\Repos\keithalewis\FRE6233\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\keithalewis\FRE6233\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF27495-CBB0-4879-BE6E-1F65F69FE8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BF8F77-6581-4C81-A152-9B181DAE1634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{B7C01105-89CC-4D3E-BF96-84C6F912A3FB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{B7C01105-89CC-4D3E-BF96-84C6F912A3FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -607,21 +607,21 @@
   <dimension ref="B2:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.54296875" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
@@ -653,7 +653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>0.01</v>
       </c>
@@ -689,7 +689,7 @@
         <v>0.14918318685281437</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>0.01</v>
       </c>
@@ -725,7 +725,7 @@
         <v>-0.14918318685281437</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>0.01</v>
       </c>
@@ -761,7 +761,7 @@
         <v>-1.3297980557564837</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>0.01</v>
       </c>
@@ -797,7 +797,7 @@
         <v>1.0829242994042823</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>0.01</v>
       </c>
@@ -833,7 +833,7 @@
         <v>0.12138795924745681</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>0.01</v>
       </c>
@@ -869,36 +869,36 @@
         <v>-0.93526713543039564</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
       <c r="E10" s="5"/>
       <c r="H10" s="1"/>
       <c r="P10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B11">
         <f>B4</f>
         <v>0.01</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:G11" si="0">C4</f>
+        <f>C4</f>
         <v>100</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f>D4</f>
         <v>0.2</v>
       </c>
       <c r="E11" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>E4</f>
         <v>Q</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f>F4</f>
         <v>100</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f>G4</f>
         <v>0.25</v>
       </c>
       <c r="H11" s="1" cm="1">
@@ -919,44 +919,44 @@
       </c>
       <c r="P11">
         <f ca="1">EXP(-B11*G11)*C11*EXP(D11*SQRT(G11)*NORMSINV(RAND()) - D11*D11*G11/2)</f>
-        <v>91.769349218718801</v>
+        <v>100.46326802748148</v>
       </c>
       <c r="Q11" cm="1">
         <f t="array" aca="1" ref="Q11" ca="1">_xll.MONTE.MEAN(P11)</f>
-        <v>99.78069238719884</v>
+        <v>99.740208152089082</v>
       </c>
       <c r="R11">
         <f ca="1">EXP(-B11*G11)*1*(P11&lt;F11)</f>
-        <v>0.99750312239746008</v>
+        <v>0</v>
       </c>
       <c r="S11" cm="1">
         <f t="array" aca="1" ref="S11" ca="1">_xll.MONTE.MEAN(R11)</f>
-        <v>0.52789689541043661</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+        <v>0.5286734877239736</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B12">
-        <f t="shared" ref="B12:G12" si="1">B5</f>
+        <f>B5</f>
         <v>0.01</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
+        <f>C5</f>
         <v>100</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f>D5</f>
         <v>0.2</v>
       </c>
       <c r="E12" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>E5</f>
         <v>D</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f>F5</f>
         <v>100</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f>G5</f>
         <v>0.25</v>
       </c>
       <c r="H12" s="1" cm="1">
@@ -970,29 +970,29 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B13">
-        <f t="shared" ref="B13:G13" si="2">B6</f>
+        <f>B6</f>
         <v>0.01</v>
       </c>
       <c r="C13">
-        <f t="shared" si="2"/>
+        <f>C6</f>
         <v>110</v>
       </c>
       <c r="D13">
-        <f t="shared" si="2"/>
+        <f>D6</f>
         <v>0.2</v>
       </c>
       <c r="E13" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f>E6</f>
         <v>D</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
+        <f>F6</f>
         <v>100</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f>G6</f>
         <v>0.25</v>
       </c>
       <c r="H13" s="1" cm="1">
@@ -1006,29 +1006,29 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B14">
-        <f t="shared" ref="B14:G14" si="3">B7</f>
+        <f>B7</f>
         <v>0.01</v>
       </c>
       <c r="C14">
-        <f t="shared" si="3"/>
+        <f>C7</f>
         <v>100</v>
       </c>
       <c r="D14">
-        <f t="shared" si="3"/>
+        <f>D7</f>
         <v>0.2</v>
       </c>
       <c r="E14" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f>E7</f>
         <v>D</v>
       </c>
       <c r="F14">
-        <f t="shared" si="3"/>
+        <f>F7</f>
         <v>110</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
+        <f>G7</f>
         <v>0.25</v>
       </c>
       <c r="H14" s="1" cm="1">
@@ -1042,29 +1042,29 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B15">
-        <f t="shared" ref="B15:G16" si="4">B8</f>
+        <f>B8</f>
         <v>0.01</v>
       </c>
       <c r="C15">
-        <f t="shared" si="4"/>
+        <f>C8</f>
         <v>100</v>
       </c>
       <c r="D15">
-        <f t="shared" si="4"/>
+        <f>D8</f>
         <v>0.3</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="4"/>
+        <f>E8</f>
         <v>Q</v>
       </c>
       <c r="F15">
-        <f t="shared" si="4"/>
+        <f>F8</f>
         <v>100</v>
       </c>
       <c r="G15">
-        <f t="shared" si="4"/>
+        <f>G8</f>
         <v>0.25</v>
       </c>
       <c r="H15" s="1" cm="1">
@@ -1078,29 +1078,29 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B16">
-        <f t="shared" ref="B16:G16" si="5">B9</f>
+        <f>B9</f>
         <v>0.01</v>
       </c>
       <c r="C16">
-        <f t="shared" si="5"/>
+        <f>C9</f>
         <v>90</v>
       </c>
       <c r="D16">
-        <f t="shared" si="5"/>
+        <f>D9</f>
         <v>0.2</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="5"/>
+        <f>E9</f>
         <v>Q</v>
       </c>
       <c r="F16">
-        <f t="shared" si="5"/>
+        <f>F9</f>
         <v>100</v>
       </c>
       <c r="G16">
-        <f t="shared" si="5"/>
+        <f>G9</f>
         <v>0.5</v>
       </c>
       <c r="H16" s="1" cm="1">
@@ -1114,7 +1114,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="18" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:11" x14ac:dyDescent="0.35">
       <c r="H18" s="6" t="s">
         <v>4</v>
       </c>
@@ -1123,85 +1123,85 @@
         <v>2.1002171037053864E-11</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" ref="J18:K18" si="6">(J4-J11)/ABS(J4)</f>
+        <f>(J4-J11)/ABS(J4)</f>
         <v>1</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="6"/>
+        <f>(K4-K11)/ABS(K4)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:11" x14ac:dyDescent="0.35">
       <c r="I19" s="3">
-        <f t="shared" ref="I19:K19" si="7">(I5-I12)/ABS(I5)</f>
+        <f>(I5-I12)/ABS(I5)</f>
         <v>-2.7979057022288933E-11</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="7"/>
+        <f>(J5-J12)/ABS(J5)</f>
         <v>-1</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="7"/>
+        <f>(K5-K12)/ABS(K5)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:11" x14ac:dyDescent="0.35">
       <c r="I20" s="3">
-        <f t="shared" ref="I20:K20" si="8">(I6-I13)/ABS(I6)</f>
+        <f>(I6-I13)/ABS(I6)</f>
         <v>-8.2972047157496815E-11</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="8"/>
+        <f>(J6-J13)/ABS(J6)</f>
         <v>-1</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="8"/>
+        <f>(K6-K13)/ABS(K6)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:11" x14ac:dyDescent="0.35">
       <c r="I21" s="3">
-        <f t="shared" ref="I21:K21" si="9">(I7-I14)/ABS(I7)</f>
+        <f>(I7-I14)/ABS(I7)</f>
         <v>-6.990061215355985E-12</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="9"/>
+        <f>(J7-J14)/ABS(J7)</f>
         <v>1</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="9"/>
+        <f>(K7-K14)/ABS(K7)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:11" x14ac:dyDescent="0.35">
       <c r="I22" s="3">
-        <f t="shared" ref="I22:K22" si="10">(I8-I15)/ABS(I8)</f>
+        <f>(I8-I15)/ABS(I8)</f>
         <v>3.4790955555105605E-11</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="10"/>
+        <f>(J8-J15)/ABS(J8)</f>
         <v>1</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="10"/>
+        <f>(K8-K15)/ABS(K8)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:11" x14ac:dyDescent="0.35">
       <c r="I23" s="3">
-        <f t="shared" ref="I23:K23" si="11">(I9-I16)/ABS(I9)</f>
+        <f>(I9-I16)/ABS(I9)</f>
         <v>6.4251848991814142E-11</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="11"/>
+        <f>(J9-J16)/ABS(J9)</f>
         <v>-1</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="11"/>
+        <f>(K9-K16)/ABS(K9)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:11" x14ac:dyDescent="0.35">
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
